--- a/back/test.xlsx
+++ b/back/test.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,25 +984,6 @@
     </row>
     <row r="14"/>
     <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
